--- a/data/trans_dic/P27D_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P27D_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses</t>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +607,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>9,42%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10,16%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>9,32%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 11,53</t>
+          <t>7,14; 11,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,05</t>
+          <t>5,24; 9,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,12</t>
+          <t>7,53; 12,01</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 12,36</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 10,99</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 10,29</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>12,17%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,86</t>
+          <t>2,99; 9,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 17,7</t>
+          <t>2,99; 8,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,16</t>
+          <t>8,14; 18,19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 15,45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 12,12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5,75; 10,6</t>
         </is>
       </c>
     </row>
@@ -665,6 +771,21 @@
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -692,6 +813,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -711,12 +847,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>10,02%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10,31%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>9,16%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -729,28 +880,644 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,33</t>
+          <t>6,6; 10,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,35</t>
+          <t>5,17; 8,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,96; 10,69</t>
+          <t>8,18; 12,28</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8,84; 12,3</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 10,45</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 9,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21125</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16131</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22417</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23982</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>43542</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40112</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16380; 26460</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11837; 21549</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17917; 28567</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19603; 29158</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37021; 51343</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>33510; 47536</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7979</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11870</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10983</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2164; 6603</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2175; 6150</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5334; 11923</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4595; 10294</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8790; 16704</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8022; 14790</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25016</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19887</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30397</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31208</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55412</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>51096</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19903; 31486</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15449; 25667</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24829; 37276</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26753; 37233</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>46968; 63222</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44364; 59199</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P27D_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P27D_R-Urba-trans_dic.xlsx
@@ -38,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -64,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -498,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -517,12 +524,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -532,48 +542,66 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
@@ -588,6 +616,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -602,30 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>9,21%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>7,14%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>9,42%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>10,16%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>9,32%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>8,69%</t>
         </is>
@@ -640,30 +686,45 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>5,55; 10,57</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>7,14; 11,53</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>5,24; 9,54</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7,4; 12,1</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>7,53; 12,01</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>8,31; 12,36</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7,06; 10,3</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>7,92; 10,99</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>7,26; 10,29</t>
         </is>
@@ -682,30 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>5,38%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>5,16%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>12,17%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>10,85%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>8,61%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>7,87%</t>
         </is>
@@ -720,30 +796,45 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>5,35; 10,76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>2,99; 9,13</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>2,99; 8,44</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6,64; 15,08</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>8,14; 18,19</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>6,9; 15,45</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 12,12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>6,38; 12,12</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>5,75; 10,6</t>
         </is>
@@ -762,30 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,71%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -800,30 +906,45 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,43; 16,17</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 17,95</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5,22; 13,72</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -842,30 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>8,29%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>6,66%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>10,02%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>10,31%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>9,16%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>8,5%</t>
         </is>
@@ -880,30 +1016,45 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>6,23; 9,69</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>6,6; 10,43</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>5,17; 8,59</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 11,82</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>8,18; 12,28</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>8,84; 12,3</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 10,1</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>7,76; 10,45</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>7,38; 9,85</t>
         </is>
@@ -918,11 +1069,11 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
@@ -937,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -956,12 +1107,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -971,48 +1125,66 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
@@ -1027,6 +1199,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1041,30 +1216,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>47.0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>75.0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>92.0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>140.0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>139.0</t>
         </is>
@@ -1079,30 +1269,45 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>127567</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>21125</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>16131</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>170184</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>22417</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>23982</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>297751</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>43542</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>40112</t>
         </is>
@@ -1117,30 +1322,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>91057; 173568</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>16380; 26460</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>11837; 21549</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>132360; 216364</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>17917; 28567</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>19603; 29158</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>242311; 353370</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>37021; 51343</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>33510; 47536</t>
         </is>
@@ -1159,30 +1379,45 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>13.0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>27.0</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
@@ -1197,30 +1432,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>107706</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>3891</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>3757</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>130943</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>7979</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>7227</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>238649</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>11870</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>10983</t>
         </is>
@@ -1235,30 +1485,45 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>74072; 149106</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>2164; 6603</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>2175; 6150</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>92377; 209716</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>5334; 11923</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>4595; 10294</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>187078; 336607</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>8790; 16704</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>8022; 14790</t>
         </is>
@@ -1277,30 +1542,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -1315,30 +1595,45 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>33454</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39281</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72735</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1353,30 +1648,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>14501; 68383</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18397; 73944</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43539; 114549</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1395,30 +1705,45 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>78.0</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>62.0</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>102.0</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>117.0</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>180.0</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>179.0</t>
         </is>
@@ -1433,30 +1758,45 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>268728</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>25016</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>19887</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>340407</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>30397</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>31208</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>609135</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>55412</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>51096</t>
         </is>
@@ -1471,30 +1811,45 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>215024; 334154</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>19903; 31486</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>15449; 25667</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>276268; 424378</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>24829; 37276</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>26753; 37233</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>518294; 710964</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>46968; 63222</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>44364; 59199</t>
         </is>
@@ -1509,12 +1864,12 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
